--- a/biology/Botanique/Liste_de_plantes/Liste_de_plantes.xlsx
+++ b/biology/Botanique/Liste_de_plantes/Liste_de_plantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste de plantes par ordre alphabétique (noms vernaculaires)
 Sommaire :
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abaca, Abélie à grandes fleurs,
 Abricotier, Abricotier des Antilles, Abricotier du Japon, Abricotier de Saint-Domingue, Abricotier d'Afrique,
@@ -588,7 +602,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Badiane chinoise, Badiane japonaise, Badianier, Badianier de Chine, Badianier de Henry, Baguenaudier, Balata, Balisier , Balisier bihaï, Ballote, Balsa,
 Balsamine, Balsamine de Balfour, Balsamine de l'Himalaya, Balsamine des bois, Balsamine des jardins,
@@ -626,7 +642,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacaoyer, Cachiman épineux, Cactée, Cactus, Caesalpinia, Caféier, Caille-lait jaune, Caimitier, Cakile, Caladium, Calament, Calcéolaire, Calebasse (Gourde ou fruit du Calebassier), Calla des marais, Callicarpe, Callistemon, Callune, Calypso bulbeux, Camélée, Camélia, Camélia du Japon, Camomille , Camomille romaine,
 Campanule, Campanule agglomérée, Campanule gantelée, Campanule raiponce, Campanule à feuilles de Cochléaire, Campanule à feuilles de pêcher,
@@ -677,7 +695,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactyle, Dactyle pelotonné, Dactylorhize de mai, Dahlia, Daikon, Dame d'onze heures, Daphné garou, Dattier, Datura, Deinanthe, Dent de chien, Dentelaire, Dentelaire du Cap, Digitale, Digitale jaune, Dionée attrape-mouche, Diplotaxis, Diplotaxis fausse roquette, Dolique, Dompte-venin funèbre, Dompte-venin officinal, Doronic, Doronic plantain, Douce-amère, Douglas, Dragonnier des Canaries, Dragonnier fragrant, Drave, Droséra, Dryade, Dryade à huit pétales, Durion,
 </t>
@@ -708,7 +728,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Échalote, Échinacée, Echinops, Edelweiss, Églantier , Égopode podagraire, Éleusine, Élyme des marais, Encyclia, Endive, Engrain, Épervière, Épervière laineuse, Épervière mixte, Épervière orangée, Épervière velue, Éphèdre, Épiaire, Épiaire des bois, Épiaire officinale, Épicéa, Épicéa bleu, Épicéa commun, Épilobe, Épilobe en épi, Épilobe à grandes fleurs, Épinard, Épine du Christ, Épine-vinette, Épinette blanche, Épipactis des marais, Épipactis pourpre noirâtre, Épipactis à larges feuilles, Éponge végétale, Épurge,
 Érable, Érable argenté, Érable champêtre, Érable de Montpellier, Érable plane, Érable sycomore,
@@ -742,7 +764,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabiana, Fausse badiane, Faux acacia, Faux de Verzy, Feijoa, Fenouil, Fenouil commun, Fenouil des Alpes, Fenugrec, Fer à cheval, Férule, Festulolium,
 Fétuque, Fétuque bleue, Fétuque élevée, Fétuque ovine (Fétuque des moutons), Fétuque des prés, Fétuque rouge,
@@ -777,7 +801,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Gagée, Gaïac officinal, Gaillarde, Gaillet, Gaillet blanc, Gaillet gratteron, Gaillet odorant, Galéga officinal, Garance des teinturiers, Garance voyageuse, Gardénia, Gaude, Gazania, Génépi.
 Genêt, Genêt à balais, Genêt ailé, Genêt cendré, Genêt d'Angleterre, Genêt d'Espagne, Genêt des teinturiers, Genêt épineux, Genêt poilu, Genévrier,
@@ -813,7 +839,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamatocactus, Haricot, Haricot commun, Haricot d'Espagne, Haricot de Lima,
 Hélianthème, Hélianthème à gouttes, Hélianthème des Apennins,
@@ -848,7 +876,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibéride, Ibéris, Ibéris toujours vert, Icaquier,
 If, If commun, If du Japon,
@@ -883,7 +913,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacaranda, Jacée,
 Jacinthe, Jacinthe des bois, Jacinthe d'eau, Jacinthe du Cap,
@@ -925,7 +957,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaki, Kalanchoé, Kapokier, Karité, Kentia, Khat, Kermès, Kerria, Ketmie, Keulérie, Kiwai,
 Kiwi, Kiwi de Sibérie,
@@ -958,7 +992,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagure, Laiteron,
 Laîche, Laîche à épis pendants
@@ -1003,7 +1039,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Macadamier, Maceron, Mâche, Mâcre nageante, Mâcre bicorne, Magnolia, Magnolia à grandes fleurs, Magnolia étoilé, Mahonia, Mahonia du Japon, Maïanthème, Maïanthème à deux feuilles, Maïs, Mamillaire, Mancenillier, Mandarine, Mandevilla, Mandragore, Mangoustanier, Mangue, Manguier, Manioc, Marguerite, Marguerite commune, Marjolaine, Marronnier, Marrube, Marsilée, Masdevallia, Massette, Maté, Mathiole ou Matthiole, Matricaire, Mauve, Mauve alcée, Mauve sylvestre, Megaskepasma, Mélampyre, Mélampyre des champs, Mélampyre des prés, Mélèze, Mélèze d'Europe, Mélèze du Japon, Mélèze laricin, Mélilot, Mélilot officinal, Mélilot élevé, Mélique, Mélisse officinale, Mélitte à feuilles de mélisse, Melon, Menthe, Menthe pouliot, Menthe-coq, Ményanthe, Méon, Mercuriale, Mercuriale annuelle, Mercuriale vivace, Merisier, Métaséquoïa, Micocoulier, Micocoulier de Provence, Millepertuis, Millepertuis à grandes fleurs, Millepertuis élégant, Millepertuis perforé, Millet, Millet commun, Millet des oiseaux, Millet japonais , Mimosa, Mimosa des quatre saisons, Mimosa odorant, Mimosa à bois noir, Mimosa de Paris, Mimule, Mimule cardinale, Minette, Miroir de Vénus, Molène, Molène blattaire, Molène de Phénicie, Molène thapsus, Molinie, Momordique, Monarde, Mongette, Monnaie du pape, Montbrétia, Morelle, Morelle de Linné, Morelle faux jasmin, Morelle noire, Morène, Mouron, Mouron rouge, Moutarde blanche, Moutarde brune, Moutarde des champs, Moutarde noire, Muflier, Muguet, Muguet de mai, Muscari, Muscari à toupet,  Mûrier, Mûrier blanc, Mûrier noir, Mûrier à papier, Mûre de Logan, Muscadier, Muscari, Myosotis, Myriophille, Myrsine africana, Myrte, Myrtille,
 </t>
@@ -1034,7 +1072,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Narcisse, Narcisse d'Asso, Narcisse des poètes, Narcisse douteux, Narcisse jaune,
 Nashi,
@@ -1068,7 +1108,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Oca du Pérou, Œillet, Œillet arméria, Œillet commun, Œillet d'Inde, Œillet de France, Œillet des Chartreux, Œillet des glaciers, Œillet mignardise, obione
 Œnanthe, Œnanthe aquatique, Œnanthe faux boucage, Œnanthe à feuilles de silaüs,
@@ -1105,7 +1147,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacane, Pacanier, Pachystachys jaune,
 Palmier, Palmier de Chine, Palmier à bétel, Palmier à huile, Palmier-dattier, Palmier à huile africain, Palmier Boucanier, Palmier de Bismark, Palmier nain, Palmier de Noël, Palmier chaume de Floride, Palmier des Everglades, Palmier pêche, Palmier royal de Cuba,
@@ -1146,7 +1190,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre-épices, Quenettier, Quercitron, Quetsche, Queue de chat, Queue-de-lièvre, Quinoa, Quinquina,
 </t>
@@ -1177,7 +1223,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Radis, Raifort, Raiponce, Raiponce en épi, Raiponce orbiculaire, Raisin, Raisin d'Amérique, Raisin d'ours, Raisin de mer, Ramondie, Raphia, Ravenala, Ravenelle, Ray-Grass, Réglisse, Reine-marguerite, Reine de la nuit, Reine-des-prés, Renoncule, Renoncule aquatique, Renoncule des rivières, Renoncule tête d'or,
 Renouée, Renouée du Japon, Renouée bistorte, Renouée d'Aubert, Renouée des haies, Renouée liseron, Renouée persicaire, Réséda, Réséda raiponce,
@@ -1212,7 +1260,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabline, Sabline d'Espagne, Sabot de Vénus, Safran, Sagittaire, Sainfoin, Sainfoin cultivé, Saintpaulia, Sakura, Salicaire, Salicaire commune, Salicorne, Salicorne d'Europe, Salsepareille, Salsifis, Salsifis cultivé, Salsifis des prés, Sanchezia, Sandragon, Sanguinaire, Sanguisorbe, Sanicle d'Europe, Santoline, Santoline à feuilles de romarin,
 Sapin, Sapin blanc, Sapin d'Andalousie, Sapin de Céphalonie, Sapin du Colorado, Sapin de Nordmann, Sapin de Vancouver,
@@ -1256,7 +1306,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabac, Tabac d'ornement, Tabouret perfolié, Tagète, Tamarinier, Tamaris, Tamier, Tanaisie, Tanaisie commune, Tangerine, Taro, Teff, Tétragone, Théier, Thlaspi, Thuya, Thuya du Canada, Thym, Tillandsia, Tilleul, Tilleul à petites feuilles, Tomate, Topinambour, Tormentille, Tournesol, Toute-bonne, Tradescantia,
 Trèfle, Trèfle à feuilles étroites, Trèfle alpestre, Trèfle alpin, Trèfle bai, Trèfle blanc, Trèfle couché, Trèfle d'Alexandrie, Trèfle d'eau, Trèfle de Perse (ou Trèfle renversé), Trèfle de Micheli, Trèfle de Thal, Trèfle de montagne, Trèfle des prés (ou Trèfle violet), Trèfle doré, Trèfle douteux, Trèfle étoilé, Trèfle hybride, Trèfle incarnat, Trèfle jaunâtre, Trèfle Pied-de-lièvre, Trèfle rougeâtre, Trèfle souterrain,
@@ -1289,7 +1341,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Urosperme, Utriculaire,
 </t>
@@ -1320,7 +1374,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Valériane, Valériane dioïque, Valériane officinale, Valériane rouge,
 Vallisnérie, Vanda, Vanille, Vanillier, Varaire, Vase d'argent, Vendangeuse, Vérâtre, Vergerette, Verge d'or, Verge d'or bicolore, Verne,
@@ -1360,7 +1416,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Wasabi, Witloof,
 </t>
@@ -1391,7 +1449,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthoceras, Xanthosoma, Xeranthemum, Xerophyllum
 </t>
@@ -1422,7 +1482,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">Yagua, Yeuse, Ylang-ylang, Ypréau, Yucca, Yucca à feuille d'aloès, Yogalophile
 </t>
@@ -1453,7 +1515,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Zamia, Zamioculcas zamiifolia, Zannichellie, Zelkova, Zinnia, Zizanie, Zostère, Zygopetalum
 </t>
